--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lama5-Bcam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lama5-Bcam.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.54682633333333</v>
+        <v>27.41581566666666</v>
       </c>
       <c r="H2">
-        <v>70.640479</v>
+        <v>82.24744699999999</v>
       </c>
       <c r="I2">
-        <v>0.6040936783880941</v>
+        <v>0.829836405160199</v>
       </c>
       <c r="J2">
-        <v>0.604093678388094</v>
+        <v>0.829836405160199</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.8453</v>
+        <v>37.23290066666667</v>
       </c>
       <c r="N2">
-        <v>98.5359</v>
+        <v>111.698702</v>
       </c>
       <c r="O2">
-        <v>0.6312643453007686</v>
+        <v>0.8091349280044453</v>
       </c>
       <c r="P2">
-        <v>0.6312643453007685</v>
+        <v>0.8091349280044454</v>
       </c>
       <c r="Q2">
-        <v>773.4025749662334</v>
+        <v>1020.770341412644</v>
       </c>
       <c r="R2">
-        <v>6960.623174696099</v>
+        <v>9186.933072713793</v>
       </c>
       <c r="S2">
-        <v>0.3813428003879933</v>
+        <v>0.6714496199447653</v>
       </c>
       <c r="T2">
-        <v>0.3813428003879932</v>
+        <v>0.6714496199447654</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.54682633333333</v>
+        <v>27.41581566666666</v>
       </c>
       <c r="H3">
-        <v>70.640479</v>
+        <v>82.24744699999999</v>
       </c>
       <c r="I3">
-        <v>0.6040936783880941</v>
+        <v>0.829836405160199</v>
       </c>
       <c r="J3">
-        <v>0.604093678388094</v>
+        <v>0.829836405160199</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.580569</v>
       </c>
       <c r="O3">
-        <v>0.0101258206906081</v>
+        <v>0.01144949369260404</v>
       </c>
       <c r="P3">
-        <v>0.0101258206906081</v>
+        <v>0.01144949369260404</v>
       </c>
       <c r="Q3">
-        <v>12.40579458361678</v>
+        <v>14.44419611748256</v>
       </c>
       <c r="R3">
-        <v>111.652151252551</v>
+        <v>129.997765057343</v>
       </c>
       <c r="S3">
-        <v>0.006116944267687718</v>
+        <v>0.009501206686774909</v>
       </c>
       <c r="T3">
-        <v>0.006116944267687716</v>
+        <v>0.009501206686774909</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.54682633333333</v>
+        <v>27.41581566666666</v>
       </c>
       <c r="H4">
-        <v>70.640479</v>
+        <v>82.24744699999999</v>
       </c>
       <c r="I4">
-        <v>0.6040936783880941</v>
+        <v>0.829836405160199</v>
       </c>
       <c r="J4">
-        <v>0.604093678388094</v>
+        <v>0.829836405160199</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.046433</v>
+        <v>0.02585733333333333</v>
       </c>
       <c r="N4">
-        <v>0.139299</v>
+        <v>0.077572</v>
       </c>
       <c r="O4">
-        <v>0.0008924107054997392</v>
+        <v>0.0005619242973401861</v>
       </c>
       <c r="P4">
-        <v>0.0008924107054997393</v>
+        <v>0.0005619242973401861</v>
       </c>
       <c r="Q4">
-        <v>1.093349787135667</v>
+        <v>0.7088998842982221</v>
       </c>
       <c r="R4">
-        <v>9.840148084221001</v>
+        <v>6.380098958684</v>
       </c>
       <c r="S4">
-        <v>0.0005390996657182516</v>
+        <v>0.0004663052388769508</v>
       </c>
       <c r="T4">
-        <v>0.0005390996657182516</v>
+        <v>0.0004663052388769508</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.54682633333333</v>
+        <v>27.41581566666666</v>
       </c>
       <c r="H5">
-        <v>70.640479</v>
+        <v>82.24744699999999</v>
       </c>
       <c r="I5">
-        <v>0.6040936783880941</v>
+        <v>0.829836405160199</v>
       </c>
       <c r="J5">
-        <v>0.604093678388094</v>
+        <v>0.829836405160199</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.323012</v>
+        <v>7.986243999999999</v>
       </c>
       <c r="N5">
-        <v>54.969036</v>
+        <v>23.958732</v>
       </c>
       <c r="O5">
-        <v>0.3521558388602974</v>
+        <v>0.1735548090066239</v>
       </c>
       <c r="P5">
-        <v>0.3521558388602974</v>
+        <v>0.1735548090066239</v>
       </c>
       <c r="Q5">
-        <v>431.4487814675827</v>
+        <v>218.9493933730226</v>
       </c>
       <c r="R5">
-        <v>3883.039033208244</v>
+        <v>1970.544540357204</v>
       </c>
       <c r="S5">
-        <v>0.212735116062962</v>
+        <v>0.1440220988043217</v>
       </c>
       <c r="T5">
-        <v>0.2127351160629619</v>
+        <v>0.1440220988043217</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.54682633333333</v>
+        <v>27.41581566666666</v>
       </c>
       <c r="H6">
-        <v>70.640479</v>
+        <v>82.24744699999999</v>
       </c>
       <c r="I6">
-        <v>0.6040936783880941</v>
+        <v>0.829836405160199</v>
       </c>
       <c r="J6">
-        <v>0.604093678388094</v>
+        <v>0.829836405160199</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1696553333333334</v>
+        <v>0.236691</v>
       </c>
       <c r="N6">
-        <v>0.508966</v>
+        <v>0.710073</v>
       </c>
       <c r="O6">
-        <v>0.003260660213895148</v>
+        <v>0.005143702258356597</v>
       </c>
       <c r="P6">
-        <v>0.003260660213895148</v>
+        <v>0.005143702258356597</v>
       </c>
       <c r="Q6">
-        <v>3.994844670523778</v>
+        <v>6.489076825958999</v>
       </c>
       <c r="R6">
-        <v>35.953602034714</v>
+        <v>58.40169143363099</v>
       </c>
       <c r="S6">
-        <v>0.00196974422258563</v>
+        <v>0.004268431391289035</v>
       </c>
       <c r="T6">
-        <v>0.001969744222585629</v>
+        <v>0.004268431391289036</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.54682633333333</v>
+        <v>27.41581566666666</v>
       </c>
       <c r="H7">
-        <v>70.640479</v>
+        <v>82.24744699999999</v>
       </c>
       <c r="I7">
-        <v>0.6040936783880941</v>
+        <v>0.829836405160199</v>
       </c>
       <c r="J7">
-        <v>0.604093678388094</v>
+        <v>0.829836405160199</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1197193333333333</v>
+        <v>0.007139</v>
       </c>
       <c r="N7">
-        <v>0.359158</v>
+        <v>0.021417</v>
       </c>
       <c r="O7">
-        <v>0.002300924228931115</v>
+        <v>0.000155142740629799</v>
       </c>
       <c r="P7">
-        <v>0.002300924228931115</v>
+        <v>0.000155142740629799</v>
       </c>
       <c r="Q7">
-        <v>2.819010350742444</v>
+        <v>0.1957215080443333</v>
       </c>
       <c r="R7">
-        <v>25.371093156682</v>
+        <v>1.761493572399</v>
       </c>
       <c r="S7">
-        <v>0.001389973781147286</v>
+        <v>0.0001287430941709335</v>
       </c>
       <c r="T7">
-        <v>0.001389973781147286</v>
+        <v>0.0001287430941709335</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.868831</v>
       </c>
       <c r="I8">
-        <v>0.007429951242086089</v>
+        <v>0.008766078705540137</v>
       </c>
       <c r="J8">
-        <v>0.007429951242086087</v>
+        <v>0.008766078705540135</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>32.8453</v>
+        <v>37.23290066666667</v>
       </c>
       <c r="N8">
-        <v>98.5359</v>
+        <v>111.698702</v>
       </c>
       <c r="O8">
-        <v>0.6312643453007686</v>
+        <v>0.8091349280044453</v>
       </c>
       <c r="P8">
-        <v>0.6312643453007685</v>
+        <v>0.8091349280044454</v>
       </c>
       <c r="Q8">
-        <v>9.512338281433335</v>
+        <v>10.78303277304022</v>
       </c>
       <c r="R8">
-        <v>85.6110445329</v>
+        <v>97.047294957362</v>
       </c>
       <c r="S8">
-        <v>0.004690263306452107</v>
+        <v>0.00709294046228852</v>
       </c>
       <c r="T8">
-        <v>0.004690263306452105</v>
+        <v>0.007092940462288519</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.868831</v>
       </c>
       <c r="I9">
-        <v>0.007429951242086089</v>
+        <v>0.008766078705540137</v>
       </c>
       <c r="J9">
-        <v>0.007429951242086087</v>
+        <v>0.008766078705540135</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.580569</v>
       </c>
       <c r="O9">
-        <v>0.0101258206906081</v>
+        <v>0.01144949369260404</v>
       </c>
       <c r="P9">
-        <v>0.0101258206906081</v>
+        <v>0.01144949369260404</v>
       </c>
       <c r="Q9">
         <v>0.1525830383154445</v>
@@ -1013,10 +1013,10 @@
         <v>1.373247344839</v>
       </c>
       <c r="S9">
-        <v>7.523435401732466E-05</v>
+        <v>0.0001003671628479524</v>
       </c>
       <c r="T9">
-        <v>7.523435401732463E-05</v>
+        <v>0.0001003671628479524</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>0.868831</v>
       </c>
       <c r="I10">
-        <v>0.007429951242086089</v>
+        <v>0.008766078705540137</v>
       </c>
       <c r="J10">
-        <v>0.007429951242086087</v>
+        <v>0.008766078705540135</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.046433</v>
+        <v>0.02585733333333333</v>
       </c>
       <c r="N10">
-        <v>0.139299</v>
+        <v>0.077572</v>
       </c>
       <c r="O10">
-        <v>0.0008924107054997392</v>
+        <v>0.0005619242973401861</v>
       </c>
       <c r="P10">
-        <v>0.0008924107054997393</v>
+        <v>0.0005619242973401861</v>
       </c>
       <c r="Q10">
-        <v>0.01344747660766667</v>
+        <v>0.007488550925777778</v>
       </c>
       <c r="R10">
-        <v>0.121027289469</v>
+        <v>0.067396958332</v>
       </c>
       <c r="S10">
-        <v>6.63056802977871E-06</v>
+        <v>4.92587261703941E-06</v>
       </c>
       <c r="T10">
-        <v>6.630568029778709E-06</v>
+        <v>4.925872617039409E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.868831</v>
       </c>
       <c r="I11">
-        <v>0.007429951242086089</v>
+        <v>0.008766078705540137</v>
       </c>
       <c r="J11">
-        <v>0.007429951242086087</v>
+        <v>0.008766078705540135</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.323012</v>
+        <v>7.986243999999999</v>
       </c>
       <c r="N11">
-        <v>54.969036</v>
+        <v>23.958732</v>
       </c>
       <c r="O11">
-        <v>0.3521558388602974</v>
+        <v>0.1735548090066239</v>
       </c>
       <c r="P11">
-        <v>0.3521558388602974</v>
+        <v>0.1735548090066239</v>
       </c>
       <c r="Q11">
-        <v>5.306533612990668</v>
+        <v>2.312898786921333</v>
       </c>
       <c r="R11">
-        <v>47.75880251691601</v>
+        <v>20.816089082292</v>
       </c>
       <c r="S11">
-        <v>0.002616500712347935</v>
+        <v>0.001521395115477051</v>
       </c>
       <c r="T11">
-        <v>0.002616500712347934</v>
+        <v>0.001521395115477051</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.868831</v>
       </c>
       <c r="I12">
-        <v>0.007429951242086089</v>
+        <v>0.008766078705540137</v>
       </c>
       <c r="J12">
-        <v>0.007429951242086087</v>
+        <v>0.008766078705540135</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1696553333333334</v>
+        <v>0.236691</v>
       </c>
       <c r="N12">
-        <v>0.508966</v>
+        <v>0.710073</v>
       </c>
       <c r="O12">
-        <v>0.003260660213895148</v>
+        <v>0.005143702258356597</v>
       </c>
       <c r="P12">
-        <v>0.003260660213895148</v>
+        <v>0.005143702258356597</v>
       </c>
       <c r="Q12">
-        <v>0.04913393763844445</v>
+        <v>0.068548159407</v>
       </c>
       <c r="R12">
-        <v>0.442205438746</v>
+        <v>0.616933434663</v>
       </c>
       <c r="S12">
-        <v>2.422654640625095E-05</v>
+        <v>4.509009883461847E-05</v>
       </c>
       <c r="T12">
-        <v>2.422654640625095E-05</v>
+        <v>4.509009883461847E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.868831</v>
       </c>
       <c r="I13">
-        <v>0.007429951242086089</v>
+        <v>0.008766078705540137</v>
       </c>
       <c r="J13">
-        <v>0.007429951242086087</v>
+        <v>0.008766078705540135</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,28 +1243,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.1197193333333333</v>
+        <v>0.007139</v>
       </c>
       <c r="N13">
-        <v>0.359158</v>
+        <v>0.021417</v>
       </c>
       <c r="O13">
-        <v>0.002300924228931115</v>
+        <v>0.000155142740629799</v>
       </c>
       <c r="P13">
-        <v>0.002300924228931115</v>
+        <v>0.000155142740629799</v>
       </c>
       <c r="Q13">
-        <v>0.03467195603311111</v>
+        <v>0.002067528169666667</v>
       </c>
       <c r="R13">
-        <v>0.312047604298</v>
+        <v>0.018607753527</v>
       </c>
       <c r="S13">
-        <v>1.709575483269271E-05</v>
+        <v>1.359993474954017E-06</v>
       </c>
       <c r="T13">
-        <v>1.709575483269271E-05</v>
+        <v>1.359993474954017E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1810763333333333</v>
+        <v>0.160356</v>
       </c>
       <c r="H14">
-        <v>0.543229</v>
+        <v>0.481068</v>
       </c>
       <c r="I14">
-        <v>0.004645512168980139</v>
+        <v>0.004853740198861207</v>
       </c>
       <c r="J14">
-        <v>0.004645512168980138</v>
+        <v>0.004853740198861207</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>32.8453</v>
+        <v>37.23290066666667</v>
       </c>
       <c r="N14">
-        <v>98.5359</v>
+        <v>111.698702</v>
       </c>
       <c r="O14">
-        <v>0.6312643453007686</v>
+        <v>0.8091349280044453</v>
       </c>
       <c r="P14">
-        <v>0.6312643453007685</v>
+        <v>0.8091349280044454</v>
       </c>
       <c r="Q14">
-        <v>5.947506491233333</v>
+        <v>5.970519019304</v>
       </c>
       <c r="R14">
-        <v>53.5275584211</v>
+        <v>53.734671173736</v>
       </c>
       <c r="S14">
-        <v>0.002932546197938001</v>
+        <v>0.003927330726357845</v>
       </c>
       <c r="T14">
-        <v>0.002932546197938</v>
+        <v>0.003927330726357846</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1810763333333333</v>
+        <v>0.160356</v>
       </c>
       <c r="H15">
-        <v>0.543229</v>
+        <v>0.481068</v>
       </c>
       <c r="I15">
-        <v>0.004645512168980139</v>
+        <v>0.004853740198861207</v>
       </c>
       <c r="J15">
-        <v>0.004645512168980138</v>
+        <v>0.004853740198861207</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.580569</v>
       </c>
       <c r="O15">
-        <v>0.0101258206906081</v>
+        <v>0.01144949369260404</v>
       </c>
       <c r="P15">
-        <v>0.0101258206906081</v>
+        <v>0.01144949369260404</v>
       </c>
       <c r="Q15">
-        <v>0.09540121303344444</v>
+        <v>0.08448457418800001</v>
       </c>
       <c r="R15">
-        <v>0.858610917301</v>
+        <v>0.760361167692</v>
       </c>
       <c r="S15">
-        <v>4.703962323913079E-05</v>
+        <v>5.557286779240008E-05</v>
       </c>
       <c r="T15">
-        <v>4.703962323913078E-05</v>
+        <v>5.557286779240008E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1810763333333333</v>
+        <v>0.160356</v>
       </c>
       <c r="H16">
-        <v>0.543229</v>
+        <v>0.481068</v>
       </c>
       <c r="I16">
-        <v>0.004645512168980139</v>
+        <v>0.004853740198861207</v>
       </c>
       <c r="J16">
-        <v>0.004645512168980138</v>
+        <v>0.004853740198861207</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.046433</v>
+        <v>0.02585733333333333</v>
       </c>
       <c r="N16">
-        <v>0.139299</v>
+        <v>0.077572</v>
       </c>
       <c r="O16">
-        <v>0.0008924107054997392</v>
+        <v>0.0005619242973401861</v>
       </c>
       <c r="P16">
-        <v>0.0008924107054997393</v>
+        <v>0.0005619242973401861</v>
       </c>
       <c r="Q16">
-        <v>0.008407917385666666</v>
+        <v>0.004146378544</v>
       </c>
       <c r="R16">
-        <v>0.075671256471</v>
+        <v>0.037317406896</v>
       </c>
       <c r="S16">
-        <v>4.145704792127189E-06</v>
+        <v>2.727434550716899E-06</v>
       </c>
       <c r="T16">
-        <v>4.145704792127189E-06</v>
+        <v>2.727434550716899E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1810763333333333</v>
+        <v>0.160356</v>
       </c>
       <c r="H17">
-        <v>0.543229</v>
+        <v>0.481068</v>
       </c>
       <c r="I17">
-        <v>0.004645512168980139</v>
+        <v>0.004853740198861207</v>
       </c>
       <c r="J17">
-        <v>0.004645512168980138</v>
+        <v>0.004853740198861207</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.323012</v>
+        <v>7.986243999999999</v>
       </c>
       <c r="N17">
-        <v>54.969036</v>
+        <v>23.958732</v>
       </c>
       <c r="O17">
-        <v>0.3521558388602974</v>
+        <v>0.1735548090066239</v>
       </c>
       <c r="P17">
-        <v>0.3521558388602974</v>
+        <v>0.1735548090066239</v>
       </c>
       <c r="Q17">
-        <v>3.317863828582666</v>
+        <v>1.280642142864</v>
       </c>
       <c r="R17">
-        <v>29.860774457244</v>
+        <v>11.525779285776</v>
       </c>
       <c r="S17">
-        <v>0.00163594423480292</v>
+        <v>0.0008423899531811295</v>
       </c>
       <c r="T17">
-        <v>0.00163594423480292</v>
+        <v>0.0008423899531811298</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1810763333333333</v>
+        <v>0.160356</v>
       </c>
       <c r="H18">
-        <v>0.543229</v>
+        <v>0.481068</v>
       </c>
       <c r="I18">
-        <v>0.004645512168980139</v>
+        <v>0.004853740198861207</v>
       </c>
       <c r="J18">
-        <v>0.004645512168980138</v>
+        <v>0.004853740198861207</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.1696553333333334</v>
+        <v>0.236691</v>
       </c>
       <c r="N18">
-        <v>0.508966</v>
+        <v>0.710073</v>
       </c>
       <c r="O18">
-        <v>0.003260660213895148</v>
+        <v>0.005143702258356597</v>
       </c>
       <c r="P18">
-        <v>0.003260660213895148</v>
+        <v>0.005143702258356597</v>
       </c>
       <c r="Q18">
-        <v>0.03072056569044444</v>
+        <v>0.037954821996</v>
       </c>
       <c r="R18">
-        <v>0.276485091214</v>
+        <v>0.341593397964</v>
       </c>
       <c r="S18">
-        <v>1.514743670255929E-05</v>
+        <v>2.496619442235859E-05</v>
       </c>
       <c r="T18">
-        <v>1.514743670255929E-05</v>
+        <v>2.496619442235859E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1810763333333333</v>
+        <v>0.160356</v>
       </c>
       <c r="H19">
-        <v>0.543229</v>
+        <v>0.481068</v>
       </c>
       <c r="I19">
-        <v>0.004645512168980139</v>
+        <v>0.004853740198861207</v>
       </c>
       <c r="J19">
-        <v>0.004645512168980138</v>
+        <v>0.004853740198861207</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.1197193333333333</v>
+        <v>0.007139</v>
       </c>
       <c r="N19">
-        <v>0.359158</v>
+        <v>0.021417</v>
       </c>
       <c r="O19">
-        <v>0.002300924228931115</v>
+        <v>0.000155142740629799</v>
       </c>
       <c r="P19">
-        <v>0.002300924228931115</v>
+        <v>0.000155142740629799</v>
       </c>
       <c r="Q19">
-        <v>0.02167833790911111</v>
+        <v>0.001144781484</v>
       </c>
       <c r="R19">
-        <v>0.195105041182</v>
+        <v>0.010303033356</v>
       </c>
       <c r="S19">
-        <v>1.068897150540074E-05</v>
+        <v>7.530225567563531E-07</v>
       </c>
       <c r="T19">
-        <v>1.068897150540073E-05</v>
+        <v>7.530225567563531E-07</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.562035</v>
+        <v>4.670809333333334</v>
       </c>
       <c r="H20">
-        <v>43.686105</v>
+        <v>14.012428</v>
       </c>
       <c r="I20">
-        <v>0.3735889144225439</v>
+        <v>0.1413785266682639</v>
       </c>
       <c r="J20">
-        <v>0.3735889144225439</v>
+        <v>0.1413785266682638</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>32.8453</v>
+        <v>37.23290066666667</v>
       </c>
       <c r="N20">
-        <v>98.5359</v>
+        <v>111.698702</v>
       </c>
       <c r="O20">
-        <v>0.6312643453007686</v>
+        <v>0.8091349280044453</v>
       </c>
       <c r="P20">
-        <v>0.6312643453007685</v>
+        <v>0.8091349280044454</v>
       </c>
       <c r="Q20">
-        <v>478.2944081855</v>
+        <v>173.9077799409395</v>
       </c>
       <c r="R20">
-        <v>4304.6496736695</v>
+        <v>1565.170019468456</v>
       </c>
       <c r="S20">
-        <v>0.2358333614745721</v>
+        <v>0.1143943039971002</v>
       </c>
       <c r="T20">
-        <v>0.235833361474572</v>
+        <v>0.1143943039971002</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.562035</v>
+        <v>4.670809333333334</v>
       </c>
       <c r="H21">
-        <v>43.686105</v>
+        <v>14.012428</v>
       </c>
       <c r="I21">
-        <v>0.3735889144225439</v>
+        <v>0.1413785266682639</v>
       </c>
       <c r="J21">
-        <v>0.3735889144225439</v>
+        <v>0.1413785266682638</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.580569</v>
       </c>
       <c r="O21">
-        <v>0.0101258206906081</v>
+        <v>0.01144949369260404</v>
       </c>
       <c r="P21">
-        <v>0.0101258206906081</v>
+        <v>0.01144949369260404</v>
       </c>
       <c r="Q21">
-        <v>7.672100365971668</v>
+        <v>2.460845479059111</v>
       </c>
       <c r="R21">
-        <v>69.048903293745</v>
+        <v>22.147609311532</v>
       </c>
       <c r="S21">
-        <v>0.003782894359441613</v>
+        <v>0.001618712549357939</v>
       </c>
       <c r="T21">
-        <v>0.003782894359441613</v>
+        <v>0.001618712549357939</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.562035</v>
+        <v>4.670809333333334</v>
       </c>
       <c r="H22">
-        <v>43.686105</v>
+        <v>14.012428</v>
       </c>
       <c r="I22">
-        <v>0.3735889144225439</v>
+        <v>0.1413785266682639</v>
       </c>
       <c r="J22">
-        <v>0.3735889144225439</v>
+        <v>0.1413785266682638</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.046433</v>
+        <v>0.02585733333333333</v>
       </c>
       <c r="N22">
-        <v>0.139299</v>
+        <v>0.077572</v>
       </c>
       <c r="O22">
-        <v>0.0008924107054997392</v>
+        <v>0.0005619242973401861</v>
       </c>
       <c r="P22">
-        <v>0.0008924107054997393</v>
+        <v>0.0005619242973401861</v>
       </c>
       <c r="Q22">
-        <v>0.676158971155</v>
+        <v>0.1207746738684445</v>
       </c>
       <c r="R22">
-        <v>6.085430740395</v>
+        <v>1.086972064816</v>
       </c>
       <c r="S22">
-        <v>0.0003333947466867042</v>
+        <v>7.944402925705493E-05</v>
       </c>
       <c r="T22">
-        <v>0.0003333947466867041</v>
+        <v>7.944402925705492E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.562035</v>
+        <v>4.670809333333334</v>
       </c>
       <c r="H23">
-        <v>43.686105</v>
+        <v>14.012428</v>
       </c>
       <c r="I23">
-        <v>0.3735889144225439</v>
+        <v>0.1413785266682639</v>
       </c>
       <c r="J23">
-        <v>0.3735889144225439</v>
+        <v>0.1413785266682638</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>18.323012</v>
+        <v>7.986243999999999</v>
       </c>
       <c r="N23">
-        <v>54.969036</v>
+        <v>23.958732</v>
       </c>
       <c r="O23">
-        <v>0.3521558388602974</v>
+        <v>0.1735548090066239</v>
       </c>
       <c r="P23">
-        <v>0.3521558388602974</v>
+        <v>0.1735548090066239</v>
       </c>
       <c r="Q23">
-        <v>266.82034204942</v>
+        <v>37.30222301347733</v>
       </c>
       <c r="R23">
-        <v>2401.38307844478</v>
+        <v>335.720007121296</v>
       </c>
       <c r="S23">
-        <v>0.1315615175473788</v>
+        <v>0.02453692319354842</v>
       </c>
       <c r="T23">
-        <v>0.1315615175473788</v>
+        <v>0.02453692319354842</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.562035</v>
+        <v>4.670809333333334</v>
       </c>
       <c r="H24">
-        <v>43.686105</v>
+        <v>14.012428</v>
       </c>
       <c r="I24">
-        <v>0.3735889144225439</v>
+        <v>0.1413785266682639</v>
       </c>
       <c r="J24">
-        <v>0.3735889144225439</v>
+        <v>0.1413785266682638</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,28 +1925,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.1696553333333334</v>
+        <v>0.236691</v>
       </c>
       <c r="N24">
-        <v>0.508966</v>
+        <v>0.710073</v>
       </c>
       <c r="O24">
-        <v>0.003260660213895148</v>
+        <v>0.005143702258356597</v>
       </c>
       <c r="P24">
-        <v>0.003260660213895148</v>
+        <v>0.005143702258356597</v>
       </c>
       <c r="Q24">
-        <v>2.470526901936667</v>
+        <v>1.105538531916</v>
       </c>
       <c r="R24">
-        <v>22.23474211743</v>
+        <v>9.949846787243999</v>
       </c>
       <c r="S24">
-        <v>0.001218146509609868</v>
+        <v>0.0007272090469066771</v>
       </c>
       <c r="T24">
-        <v>0.001218146509609868</v>
+        <v>0.0007272090469066771</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.562035</v>
+        <v>4.670809333333334</v>
       </c>
       <c r="H25">
-        <v>43.686105</v>
+        <v>14.012428</v>
       </c>
       <c r="I25">
-        <v>0.3735889144225439</v>
+        <v>0.1413785266682639</v>
       </c>
       <c r="J25">
-        <v>0.3735889144225439</v>
+        <v>0.1413785266682638</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1987,28 +1987,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.1197193333333333</v>
+        <v>0.007139</v>
       </c>
       <c r="N25">
-        <v>0.359158</v>
+        <v>0.021417</v>
       </c>
       <c r="O25">
-        <v>0.002300924228931115</v>
+        <v>0.000155142740629799</v>
       </c>
       <c r="P25">
-        <v>0.002300924228931115</v>
+        <v>0.000155142740629799</v>
       </c>
       <c r="Q25">
-        <v>1.743357122176667</v>
+        <v>0.03334490783066667</v>
       </c>
       <c r="R25">
-        <v>15.69021409959</v>
+        <v>0.300104170476</v>
       </c>
       <c r="S25">
-        <v>0.0008595997848549041</v>
+        <v>2.193385209351758E-05</v>
       </c>
       <c r="T25">
-        <v>0.000859599784854904</v>
+        <v>2.193385209351757E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.229552</v>
+        <v>0.2490503333333333</v>
       </c>
       <c r="H26">
-        <v>0.688656</v>
+        <v>0.747151</v>
       </c>
       <c r="I26">
-        <v>0.005889155086052451</v>
+        <v>0.007538387178775871</v>
       </c>
       <c r="J26">
-        <v>0.005889155086052451</v>
+        <v>0.00753838717877587</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>32.8453</v>
+        <v>37.23290066666667</v>
       </c>
       <c r="N26">
-        <v>98.5359</v>
+        <v>111.698702</v>
       </c>
       <c r="O26">
-        <v>0.6312643453007686</v>
+        <v>0.8091349280044453</v>
       </c>
       <c r="P26">
-        <v>0.6312643453007685</v>
+        <v>0.8091349280044454</v>
       </c>
       <c r="Q26">
-        <v>7.539704305600001</v>
+        <v>9.272866322000223</v>
       </c>
       <c r="R26">
-        <v>67.8573387504</v>
+        <v>83.45579689800199</v>
       </c>
       <c r="S26">
-        <v>0.003717613629771592</v>
+        <v>0.006099572367168448</v>
       </c>
       <c r="T26">
-        <v>0.003717613629771591</v>
+        <v>0.006099572367168448</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.229552</v>
+        <v>0.2490503333333333</v>
       </c>
       <c r="H27">
-        <v>0.688656</v>
+        <v>0.747151</v>
       </c>
       <c r="I27">
-        <v>0.005889155086052451</v>
+        <v>0.007538387178775871</v>
       </c>
       <c r="J27">
-        <v>0.005889155086052451</v>
+        <v>0.00753838717877587</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.580569</v>
       </c>
       <c r="O27">
-        <v>0.0101258206906081</v>
+        <v>0.01144949369260404</v>
       </c>
       <c r="P27">
-        <v>0.0101258206906081</v>
+        <v>0.01144949369260404</v>
       </c>
       <c r="Q27">
-        <v>0.1209409250293333</v>
+        <v>0.1312137454354445</v>
       </c>
       <c r="R27">
-        <v>1.088468325264</v>
+        <v>1.180923708919</v>
       </c>
       <c r="S27">
-        <v>5.963252842054982E-05</v>
+        <v>8.63107164558015E-05</v>
       </c>
       <c r="T27">
-        <v>5.963252842054982E-05</v>
+        <v>8.63107164558015E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.229552</v>
+        <v>0.2490503333333333</v>
       </c>
       <c r="H28">
-        <v>0.688656</v>
+        <v>0.747151</v>
       </c>
       <c r="I28">
-        <v>0.005889155086052451</v>
+        <v>0.007538387178775871</v>
       </c>
       <c r="J28">
-        <v>0.005889155086052451</v>
+        <v>0.00753838717877587</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.046433</v>
+        <v>0.02585733333333333</v>
       </c>
       <c r="N28">
-        <v>0.139299</v>
+        <v>0.077572</v>
       </c>
       <c r="O28">
-        <v>0.0008924107054997392</v>
+        <v>0.0005619242973401861</v>
       </c>
       <c r="P28">
-        <v>0.0008924107054997393</v>
+        <v>0.0005619242973401861</v>
       </c>
       <c r="Q28">
-        <v>0.010658788016</v>
+        <v>0.006439777485777778</v>
       </c>
       <c r="R28">
-        <v>0.09592909214400001</v>
+        <v>0.057957997372</v>
       </c>
       <c r="S28">
-        <v>5.255545045141445E-06</v>
+        <v>4.236002918511899E-06</v>
       </c>
       <c r="T28">
-        <v>5.255545045141446E-06</v>
+        <v>4.236002918511899E-06</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.229552</v>
+        <v>0.2490503333333333</v>
       </c>
       <c r="H29">
-        <v>0.688656</v>
+        <v>0.747151</v>
       </c>
       <c r="I29">
-        <v>0.005889155086052451</v>
+        <v>0.007538387178775871</v>
       </c>
       <c r="J29">
-        <v>0.005889155086052451</v>
+        <v>0.00753838717877587</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>18.323012</v>
+        <v>7.986243999999999</v>
       </c>
       <c r="N29">
-        <v>54.969036</v>
+        <v>23.958732</v>
       </c>
       <c r="O29">
-        <v>0.3521558388602974</v>
+        <v>0.1735548090066239</v>
       </c>
       <c r="P29">
-        <v>0.3521558388602974</v>
+        <v>0.1735548090066239</v>
       </c>
       <c r="Q29">
-        <v>4.206084050624001</v>
+        <v>1.988976730281333</v>
       </c>
       <c r="R29">
-        <v>37.85475645561601</v>
+        <v>17.900790572532</v>
       </c>
       <c r="S29">
-        <v>0.002073900349507188</v>
+        <v>0.001308323347030429</v>
       </c>
       <c r="T29">
-        <v>0.002073900349507188</v>
+        <v>0.001308323347030429</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.229552</v>
+        <v>0.2490503333333333</v>
       </c>
       <c r="H30">
-        <v>0.688656</v>
+        <v>0.747151</v>
       </c>
       <c r="I30">
-        <v>0.005889155086052451</v>
+        <v>0.007538387178775871</v>
       </c>
       <c r="J30">
-        <v>0.005889155086052451</v>
+        <v>0.00753838717877587</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -2297,28 +2297,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.1696553333333334</v>
+        <v>0.236691</v>
       </c>
       <c r="N30">
-        <v>0.508966</v>
+        <v>0.710073</v>
       </c>
       <c r="O30">
-        <v>0.003260660213895148</v>
+        <v>0.005143702258356597</v>
       </c>
       <c r="P30">
-        <v>0.003260660213895148</v>
+        <v>0.005143702258356597</v>
       </c>
       <c r="Q30">
-        <v>0.03894472107733334</v>
+        <v>0.058947972447</v>
       </c>
       <c r="R30">
-        <v>0.3505024896960001</v>
+        <v>0.530531752023</v>
       </c>
       <c r="S30">
-        <v>1.920253368254948E-05</v>
+        <v>3.877521915583586E-05</v>
       </c>
       <c r="T30">
-        <v>1.920253368254948E-05</v>
+        <v>3.877521915583586E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.229552</v>
+        <v>0.2490503333333333</v>
       </c>
       <c r="H31">
-        <v>0.688656</v>
+        <v>0.747151</v>
       </c>
       <c r="I31">
-        <v>0.005889155086052451</v>
+        <v>0.007538387178775871</v>
       </c>
       <c r="J31">
-        <v>0.005889155086052451</v>
+        <v>0.00753838717877587</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2359,28 +2359,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.1197193333333333</v>
+        <v>0.007139</v>
       </c>
       <c r="N31">
-        <v>0.359158</v>
+        <v>0.021417</v>
       </c>
       <c r="O31">
-        <v>0.002300924228931115</v>
+        <v>0.000155142740629799</v>
       </c>
       <c r="P31">
-        <v>0.002300924228931115</v>
+        <v>0.000155142740629799</v>
       </c>
       <c r="Q31">
-        <v>0.02748181240533333</v>
+        <v>0.001777970329666667</v>
       </c>
       <c r="R31">
-        <v>0.247336311648</v>
+        <v>0.016001732967</v>
       </c>
       <c r="S31">
-        <v>1.355049962543099E-05</v>
+        <v>1.169526046843827E-06</v>
       </c>
       <c r="T31">
-        <v>1.355049962543099E-05</v>
+        <v>1.169526046843827E-06</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.1696663333333333</v>
+        <v>0.2519733333333333</v>
       </c>
       <c r="H32">
-        <v>0.508999</v>
+        <v>0.75592</v>
       </c>
       <c r="I32">
-        <v>0.004352788692243459</v>
+        <v>0.007626862088359991</v>
       </c>
       <c r="J32">
-        <v>0.004352788692243459</v>
+        <v>0.007626862088359991</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>32.8453</v>
+        <v>37.23290066666667</v>
       </c>
       <c r="N32">
-        <v>98.5359</v>
+        <v>111.698702</v>
       </c>
       <c r="O32">
-        <v>0.6312643453007686</v>
+        <v>0.8091349280044453</v>
       </c>
       <c r="P32">
-        <v>0.6312643453007685</v>
+        <v>0.8091349280044454</v>
       </c>
       <c r="Q32">
-        <v>5.572741618233334</v>
+        <v>9.381698090648888</v>
       </c>
       <c r="R32">
-        <v>50.1546745641</v>
+        <v>84.43528281584</v>
       </c>
       <c r="S32">
-        <v>0.002747760304041656</v>
+        <v>0.006171160506764995</v>
       </c>
       <c r="T32">
-        <v>0.002747760304041655</v>
+        <v>0.006171160506764996</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.1696663333333333</v>
+        <v>0.2519733333333333</v>
       </c>
       <c r="H33">
-        <v>0.508999</v>
+        <v>0.75592</v>
       </c>
       <c r="I33">
-        <v>0.004352788692243459</v>
+        <v>0.007626862088359991</v>
       </c>
       <c r="J33">
-        <v>0.004352788692243459</v>
+        <v>0.007626862088359991</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.580569</v>
       </c>
       <c r="O33">
-        <v>0.0101258206906081</v>
+        <v>0.01144949369260404</v>
       </c>
       <c r="P33">
-        <v>0.0101258206906081</v>
+        <v>0.01144949369260404</v>
       </c>
       <c r="Q33">
-        <v>0.08938978227011111</v>
+        <v>0.1327537464977778</v>
       </c>
       <c r="R33">
-        <v>0.804508040431</v>
+        <v>1.19478371848</v>
       </c>
       <c r="S33">
-        <v>4.407555780176378E-05</v>
+        <v>8.73237093750386E-05</v>
       </c>
       <c r="T33">
-        <v>4.407555780176378E-05</v>
+        <v>8.732370937503861E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.1696663333333333</v>
+        <v>0.2519733333333333</v>
       </c>
       <c r="H34">
-        <v>0.508999</v>
+        <v>0.75592</v>
       </c>
       <c r="I34">
-        <v>0.004352788692243459</v>
+        <v>0.007626862088359991</v>
       </c>
       <c r="J34">
-        <v>0.004352788692243459</v>
+        <v>0.007626862088359991</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.046433</v>
+        <v>0.02585733333333333</v>
       </c>
       <c r="N34">
-        <v>0.139299</v>
+        <v>0.077572</v>
       </c>
       <c r="O34">
-        <v>0.0008924107054997392</v>
+        <v>0.0005619242973401861</v>
       </c>
       <c r="P34">
-        <v>0.0008924107054997393</v>
+        <v>0.0005619242973401861</v>
       </c>
       <c r="Q34">
-        <v>0.007878116855666667</v>
+        <v>0.006515358471111111</v>
       </c>
       <c r="R34">
-        <v>0.070903051701</v>
+        <v>0.05863822624000001</v>
       </c>
       <c r="S34">
-        <v>3.884475227736273E-06</v>
+        <v>4.285719119912193E-06</v>
       </c>
       <c r="T34">
-        <v>3.884475227736272E-06</v>
+        <v>4.285719119912193E-06</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.1696663333333333</v>
+        <v>0.2519733333333333</v>
       </c>
       <c r="H35">
-        <v>0.508999</v>
+        <v>0.75592</v>
       </c>
       <c r="I35">
-        <v>0.004352788692243459</v>
+        <v>0.007626862088359991</v>
       </c>
       <c r="J35">
-        <v>0.004352788692243459</v>
+        <v>0.007626862088359991</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>18.323012</v>
+        <v>7.986243999999999</v>
       </c>
       <c r="N35">
-        <v>54.969036</v>
+        <v>23.958732</v>
       </c>
       <c r="O35">
-        <v>0.3521558388602974</v>
+        <v>0.1735548090066239</v>
       </c>
       <c r="P35">
-        <v>0.3521558388602974</v>
+        <v>0.1735548090066239</v>
       </c>
       <c r="Q35">
-        <v>3.108798261662667</v>
+        <v>2.012320521493333</v>
       </c>
       <c r="R35">
-        <v>27.979184354964</v>
+        <v>18.11088469344</v>
       </c>
       <c r="S35">
-        <v>0.001532859953298612</v>
+        <v>0.001323678593065179</v>
       </c>
       <c r="T35">
-        <v>0.001532859953298612</v>
+        <v>0.001323678593065179</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.1696663333333333</v>
+        <v>0.2519733333333333</v>
       </c>
       <c r="H36">
-        <v>0.508999</v>
+        <v>0.75592</v>
       </c>
       <c r="I36">
-        <v>0.004352788692243459</v>
+        <v>0.007626862088359991</v>
       </c>
       <c r="J36">
-        <v>0.004352788692243459</v>
+        <v>0.007626862088359991</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -2669,28 +2669,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M36">
-        <v>0.1696553333333334</v>
+        <v>0.236691</v>
       </c>
       <c r="N36">
-        <v>0.508966</v>
+        <v>0.710073</v>
       </c>
       <c r="O36">
-        <v>0.003260660213895148</v>
+        <v>0.005143702258356597</v>
       </c>
       <c r="P36">
-        <v>0.003260660213895148</v>
+        <v>0.005143702258356597</v>
       </c>
       <c r="Q36">
-        <v>0.02878479833711111</v>
+        <v>0.05963982024</v>
       </c>
       <c r="R36">
-        <v>0.259063185034</v>
+        <v>0.5367583821599999</v>
       </c>
       <c r="S36">
-        <v>1.419296490829094E-05</v>
+        <v>3.92303077480716E-05</v>
       </c>
       <c r="T36">
-        <v>1.419296490829094E-05</v>
+        <v>3.92303077480716E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.1696663333333333</v>
+        <v>0.2519733333333333</v>
       </c>
       <c r="H37">
-        <v>0.508999</v>
+        <v>0.75592</v>
       </c>
       <c r="I37">
-        <v>0.004352788692243459</v>
+        <v>0.007626862088359991</v>
       </c>
       <c r="J37">
-        <v>0.004352788692243459</v>
+        <v>0.007626862088359991</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -2731,28 +2731,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M37">
-        <v>0.1197193333333333</v>
+        <v>0.007139</v>
       </c>
       <c r="N37">
-        <v>0.359158</v>
+        <v>0.021417</v>
       </c>
       <c r="O37">
-        <v>0.002300924228931115</v>
+        <v>0.000155142740629799</v>
       </c>
       <c r="P37">
-        <v>0.002300924228931115</v>
+        <v>0.000155142740629799</v>
       </c>
       <c r="Q37">
-        <v>0.02031234031577778</v>
+        <v>0.001798837626666666</v>
       </c>
       <c r="R37">
-        <v>0.182811062842</v>
+        <v>0.01618953864</v>
       </c>
       <c r="S37">
-        <v>1.001543696540036E-05</v>
+        <v>1.183252286793681E-06</v>
       </c>
       <c r="T37">
-        <v>1.001543696540035E-05</v>
+        <v>1.183252286793681E-06</v>
       </c>
     </row>
   </sheetData>
